--- a/data/trans_bre/P23_4_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_4_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,30 +620,40 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-35,14%</t>
+          <t>-23,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-43,91%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
@@ -642,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 8,6</t>
+          <t>-13,94; 5,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 2,85</t>
+          <t>-15,81; 4,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,93</t>
+          <t>0,0; 10,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -666,6 +692,16 @@
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,17</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -694,22 +730,32 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-1,03</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>30,55%</t>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>112,97%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-35,08%</t>
         </is>
       </c>
     </row>
@@ -722,7 +768,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 17,77</t>
+          <t>0,0; 15,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -732,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 4,82</t>
+          <t>-2,98; 8,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,71; 3,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -746,6 +792,16 @@
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-3,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,56</t>
+          <t>-5,21</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,56</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-34,46%</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-83,91%</t>
+          <t>-44,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-64,86%</t>
+          <t>-84,39%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-41,63%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-54,55%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 3,62</t>
+          <t>-12,95; 3,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,53; -1,06</t>
+          <t>-15,58; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-29,39; 1,29</t>
+          <t>-12,21; 4,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-81,32; 113,75</t>
+          <t>-13,13; 3,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,03; 175,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-94,44; 49,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-91,98; 186,16</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 231,81</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,81</t>
+          <t>11,1</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>231,79%</t>
+          <t>9,36</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>104,47%</t>
+          <t>1015,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>117,44%</t>
+          <t>68,97%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>117,32%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>222,31%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 12,09</t>
+          <t>4,91; 18,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 6,78</t>
+          <t>-4,5; 8,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 9,6</t>
+          <t>-2,09; 11,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 1164,26</t>
+          <t>1,98; 17,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,98; 1004,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,25; 600,51</t>
+          <t>-69,17; 671,96</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-46,66; 1060,0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-5,03; 1197,86</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,92</t>
+          <t>-5,69</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-73,47%</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>40,67%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>20,31%</t>
+          <t>11,31%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>31,15%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23,71%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 0,14</t>
+          <t>-14,4; -1,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 7,5</t>
+          <t>-6,99; 10,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 5,99</t>
+          <t>-4,39; 7,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 72,13</t>
+          <t>-16,25; 14,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-79,99; 657,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 576,02</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-84,0; 414,42</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>6,54</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>527,41%</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-85,45%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>40,93%</t>
         </is>
       </c>
     </row>
@@ -1042,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,74; 18,09</t>
+          <t>2,08; 16,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,19; -1,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,89</t>
+          <t>0,0; 7,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,97; 15,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1066,6 +1192,16 @@
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>57,41%</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-41,56%</t>
+          <t>84,63%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,23%</t>
+          <t>-20,41%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>54,87%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>40,57%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 5,23</t>
+          <t>-0,25; 5,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 0,37</t>
+          <t>-3,52; 1,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 2,29</t>
+          <t>-1,06; 3,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 179,64</t>
+          <t>-2,09; 5,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-76,33; 20,1</t>
+          <t>-9,3; 324,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-64,96; 98,19</t>
+          <t>-70,87; 83,88</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-29,0; 279,7</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-31,89; 182,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P23_4_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_4_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,44 +627,32 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,83</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,82</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,54</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,87</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-23,34%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-43,91%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="C4" s="5" t="n">
+        <v>3.328468917816536</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.078928507085606</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.008375189561238</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.769730029399819</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.9848017117222837</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.4791895025922389</v>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -663,254 +660,134 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,94; 5,51</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-15,81; 4,64</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,53</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 9,57</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-6.793279274579573</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-16.27588411886009</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>23.92566701405556</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.52490401783487</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.79035182247606</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>9.207424280727478</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,66</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,73</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,03</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>112,97%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-35,08%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 15,59</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,98; 8,46</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-12,71; 3,88</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.629995293741167</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.84998872952394</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.1831733969777816</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>1.2880847515255</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.08938739577538551</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,74</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,21</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-3,03</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-3,99</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-44,7%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-84,39%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-41,63%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-54,55%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="n">
+        <v>-2.057339928330124</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.947635090371059</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,95; 3,59</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-15,58; 0,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-12,21; 4,01</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-13,13; 3,2</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-88,03; 175,2</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-91,98; 186,16</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 231,81</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>15.18619172044319</v>
+      </c>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="n">
+        <v>8.799214137528494</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.929717630984311</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +795,191 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>11,1</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,79</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,53</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>9,36</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1015,94%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>68,97%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>117,32%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>222,31%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-3.544087910595281</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-4.559783284934579</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-3.357799779385505</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-3.246003059560412</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.3909127051503116</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.7667319816559863</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.4097849836695775</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.469594313394731</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>4,91; 18,11</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,5; 8,82</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,09; 11,68</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1,98; 17,84</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-69,17; 671,96</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-46,66; 1060,0</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-5,03; 1197,86</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-14.04941478639853</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-14.62198124191504</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-13.97690322104732</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-11.89711364844</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.8810708088494701</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.9250731873756967</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.833630100223279</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.8290633832100578</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.614047410363694</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.16418483051419</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1.766351828362469</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>1.871620366276869</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.754121361889779</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-5,69</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,39</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>11,31%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>31,15%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>23,71%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-14,4; -1,4</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-6,99; 10,25</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,39; 7,78</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-16,25; 14,85</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 576,02</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-84,0; 414,42</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>12.70278919983824</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.492278079741917</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.140538049541729</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>9.182559658125191</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>13.00586565117712</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.6200247786415003</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1.079511763731221</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>2.166940648018877</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>6,54</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,84</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,76</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>40,93%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>6.167664738452994</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.743712639477052</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.321455635114312</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.543939807322108</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-0.7134324459075924</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5065669431852626</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.06278490811693242</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,08; 16,71</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 7,97</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-8,97; 15,63</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>21.92882196794526</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>8.127093965861141</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.09088184181504</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>17.44437411454852</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>6.875977237294391</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>9.754190074089593</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>11.70703102728825</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +987,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,71</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,53</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>2,08</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>84,63%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-20,41%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>54,87%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>40,57%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-5.353485478576342</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.3216572291118692</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>1.010407815994601</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>2.195393784798276</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.05826648219724897</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.4023949093319398</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.2158966511048607</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 5,98</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-3,52; 1,64</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,06; 3,95</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-2,09; 5,8</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-9,3; 324,72</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-70,87; 83,88</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-29,0; 279,7</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-31,89; 182,99</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-13.57735746147631</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-7.076139636652426</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-3.936183731769756</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-17.43479228733561</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="6" t="inlineStr"/>
+      <c r="J17" s="6" t="n">
+        <v>-0.8718646564229022</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>-1.29351098485264</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>8.940097267909746</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>7.813870743592971</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>14.35462253782492</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="n">
+        <v>5.219137718216626</v>
+      </c>
+      <c r="I18" s="6" t="inlineStr"/>
+      <c r="J18" s="6" t="n">
+        <v>4.215365462773924</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>6.313666574031044</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>1.752958852635199</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>3.537602890346789</v>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="inlineStr"/>
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.5362768223407368</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>1.979866568285703</v>
+      </c>
+      <c r="D20" s="5" t="inlineStr"/>
+      <c r="E20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-7.37047276337339</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>16.1297596824556</v>
+      </c>
+      <c r="D21" s="5" t="inlineStr"/>
+      <c r="E21" s="5" t="n">
+        <v>7.741963813195145</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>19.12204710489732</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>3.789086669848603</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.760106692393887</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.328350749026866</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>2.445399814682921</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>1.186102991654034</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.2158551852196872</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.4520545950150029</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.5087620543490288</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0.4261864952942746</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.670491109215157</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-1.568853887831751</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-1.461897449401288</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.00042608215360681</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.6987685411876102</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.358261475497433</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.286258975673402</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>7.967741896455674</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.583852449980733</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>3.867017221217905</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>6.124960710463426</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>3.947992931701101</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.8613448195321479</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>2.533320912129831</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>2.00468350727864</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1259,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
